--- a/ch19/ROI exercise.xlsx
+++ b/ch19/ROI exercise.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12780" activeTab="1"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="ROI Exercise" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,143 +27,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
-  <si>
-    <t>Without Data Modeling</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+  <si>
+    <t>Scenario A</t>
+  </si>
+  <si>
+    <t>Scenario B</t>
+  </si>
+  <si>
+    <t>No Data Modeling</t>
   </si>
   <si>
     <t>With Data Modeling</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Line item</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>cost</t>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Development costs</t>
+  </si>
+  <si>
+    <t>(year 1)</t>
+  </si>
+  <si>
+    <t>Development and consulting no modeling</t>
+  </si>
+  <si>
+    <t>Cross-functional team (Project Manager, Data Architect, Data Engineers, BI Developers, QA)</t>
+  </si>
+  <si>
+    <t>Development and consulting with modeling</t>
+  </si>
+  <si>
+    <t>Expect the project to complete 15% faster due to less rework and reloading</t>
+  </si>
+  <si>
+    <t>Snowflake platform no modeling</t>
+  </si>
+  <si>
+    <t>100 credits/month x 12 months at $2.50</t>
+  </si>
+  <si>
+    <t>Snowflake platform with modeling</t>
+  </si>
+  <si>
+    <t>Infrastructure and licensing</t>
+  </si>
+  <si>
+    <t>Data integration, reporting, etc.</t>
+  </si>
+  <si>
+    <t>Data modeling</t>
+  </si>
+  <si>
+    <t>Training, development, tooling, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational costs platform </t>
+  </si>
+  <si>
+    <t>(years 2-6)</t>
+  </si>
+  <si>
+    <t>Snowflake platform ETL</t>
+  </si>
+  <si>
+    <t>Small WH 2 hours/day x 22 days/month at $2.50</t>
+  </si>
+  <si>
+    <t>Snowflake platform analytics</t>
+  </si>
+  <si>
+    <t>2 XS WH 8 hours/day x 22 days/month at $2.50</t>
+  </si>
+  <si>
+    <t>Snowflake platform seasonal spikes</t>
+  </si>
+  <si>
+    <t>Additional XS WH 4 hours/day x 22 days/month for 2 months at $2.50</t>
+  </si>
+  <si>
+    <t>Additional software and licenses</t>
+  </si>
+  <si>
+    <t>Data integration, reporting, data quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data modeling </t>
+  </si>
+  <si>
+    <t>Data and engineering team</t>
+  </si>
+  <si>
+    <t>no data modeling</t>
+  </si>
+  <si>
+    <t>4 FTEs at $100k avg. salary</t>
+  </si>
+  <si>
+    <t>$100k x 4 FTEs x 5 years = $2M. This will be split between fixes and incremental updates</t>
+  </si>
+  <si>
+    <t>Maintenance and bug fixes</t>
+  </si>
+  <si>
+    <t>45% of the teams time is spent on data quality issues, rework, and performance adjustments</t>
+  </si>
+  <si>
+    <t>Updates and enhancements</t>
+  </si>
+  <si>
+    <t>55% of the remaining time is spent on delivering incremental enhancements and new functionality</t>
+  </si>
+  <si>
+    <t>with data modeling</t>
+  </si>
+  <si>
+    <t>25% of the teams time is spent on data quality issues, rework, and performance adjustments</t>
+  </si>
+  <si>
+    <t>75% of the remaining time is spent on delivering incremental enhancements and new functionality</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>and contingency</t>
+  </si>
+  <si>
+    <t>Contingency Budget</t>
+  </si>
+  <si>
+    <t>Set aside 10% of annual maintenance labor costs for unforeseen issues</t>
+  </si>
+  <si>
+    <t>Total Cost of Ownership</t>
+  </si>
+  <si>
+    <t>(years 1-6)</t>
   </si>
   <si>
     <t>Development costs (year 1)</t>
   </si>
   <si>
-    <t>Development and consulting no modeling</t>
-  </si>
-  <si>
-    <t>Cross-functional team (Project Manager, Data Architect, Data Engineers, BI Developers, QA)</t>
-  </si>
-  <si>
-    <t>the same because data modeling ensures alignment and prevents rework</t>
-  </si>
-  <si>
-    <t>Development and consulting with modeling</t>
-  </si>
-  <si>
-    <t>Expect the project to complete 15% faster due to less rework and reloading</t>
-  </si>
-  <si>
-    <t>Snowflake platform no modeling</t>
-  </si>
-  <si>
-    <t>100 credits/month x 12 months at $2.50</t>
-  </si>
-  <si>
-    <t>Snowflake platform with modeling</t>
-  </si>
-  <si>
-    <t>Infrastructure and licensing</t>
-  </si>
-  <si>
-    <t>Data integration, reporting, etc.</t>
-  </si>
-  <si>
-    <t>Data modeling</t>
-  </si>
-  <si>
-    <t>Training, development, tooling, etc</t>
-  </si>
-  <si>
     <t>Operational costs platform (years 2-6)</t>
   </si>
   <si>
-    <t>Snowflake platform ETL</t>
-  </si>
-  <si>
-    <t>Small WH 2 hours/day x 22 days/month at $2.50</t>
-  </si>
-  <si>
-    <t>Snowflake platform analytics</t>
-  </si>
-  <si>
-    <t>2 XS WH 8 hours/day x 22 days/month at $2.50</t>
-  </si>
-  <si>
-    <t>Snowflake platform seasonal spikes</t>
-  </si>
-  <si>
-    <t>Additional XS WH 4 hours/day x 22 days/month for 2 months at $2.50</t>
-  </si>
-  <si>
-    <t>Additional software and licenses</t>
-  </si>
-  <si>
-    <t>Data integration, reporting, data quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data modeling </t>
-  </si>
-  <si>
-    <t>Data and engineering team - no data modeling</t>
-  </si>
-  <si>
-    <t>4 FTEs at $100k avg. salary</t>
-  </si>
-  <si>
-    <t>$100k x 4 FTEs x 5 years = $2M. This will be split between fixes and incremental updates</t>
-  </si>
-  <si>
-    <t>Maintenance and bug fixes</t>
-  </si>
-  <si>
-    <t>45% of the teams time is spent on data quality issues, rework, and performance adjustments</t>
-  </si>
-  <si>
-    <t>Updates and enhancements</t>
-  </si>
-  <si>
-    <t>55% of the remaining time is spent on delivering incremental enhancements and new functionality</t>
-  </si>
-  <si>
-    <t>Data and engineering team -with data modeling</t>
-  </si>
-  <si>
-    <t>25% of the teams time is spent on data quality issues, rework, and performance adjustments</t>
-  </si>
-  <si>
-    <t>the delta is almost 0 1 fte</t>
-  </si>
-  <si>
-    <t>75% of the remaining time is spent on delivering incremental enhancements and new functionality</t>
-  </si>
-  <si>
     <t>Risk Management and contingency</t>
   </si>
   <si>
-    <t>Contingency Budget</t>
-  </si>
-  <si>
-    <t>Set aside 10% of annual maintenance labor costs for unforeseen issues</t>
-  </si>
-  <si>
-    <t>Total Cost of Ownership</t>
-  </si>
-  <si>
-    <t>Data and engineering team</t>
-  </si>
-  <si>
     <t>Benefit</t>
   </si>
   <si>
+    <t xml:space="preserve">Benefit </t>
+  </si>
+  <si>
     <t>Expected Benefits</t>
   </si>
   <si>
@@ -190,54 +218,6 @@
     <t xml:space="preserve">(Expected Benefit - TCO ) / TCO </t>
   </si>
   <si>
-    <t>Scenario A</t>
-  </si>
-  <si>
-    <t>Scenario B</t>
-  </si>
-  <si>
-    <t>No Data Modeling</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost </t>
-  </si>
-  <si>
-    <t>Development costs</t>
-  </si>
-  <si>
-    <t>(year 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational costs platform </t>
-  </si>
-  <si>
-    <t>(years 2-6)</t>
-  </si>
-  <si>
-    <t>no data modeling</t>
-  </si>
-  <si>
-    <t>with data modeling</t>
-  </si>
-  <si>
-    <t>Risk Management</t>
-  </si>
-  <si>
-    <t>and contingency</t>
-  </si>
-  <si>
-    <t>(years 1-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefit </t>
-  </si>
-  <si>
     <t>Benefits gain in scenario B over A</t>
   </si>
   <si>
@@ -245,51 +225,6 @@
   </si>
   <si>
     <t>Total ROI of data modeling</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>dim_customer</t>
-  </si>
-  <si>
-    <t>(glob)dim_customer</t>
-  </si>
-  <si>
-    <t>col 1</t>
-  </si>
-  <si>
-    <t>col 2</t>
-  </si>
-  <si>
-    <t>10 days later</t>
-  </si>
-  <si>
-    <t>created on 1.1.11</t>
-  </si>
-  <si>
-    <t>created on 5.1.11</t>
-  </si>
-  <si>
-    <t>modified on 10.1.11</t>
-  </si>
-  <si>
-    <t>modified on 5.1.11</t>
-  </si>
-  <si>
-    <t>modified on 15.1.11</t>
-  </si>
-  <si>
-    <t>by Bob</t>
-  </si>
-  <si>
-    <t>by Tom</t>
-  </si>
-  <si>
-    <t>by Sam</t>
   </si>
 </sst>
 </file>
@@ -297,11 +232,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -314,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,7 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,19 +736,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,20 +881,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -968,37 +900,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1659,1173 +1582,612 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="27.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="83.2190476190476" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:5">
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>600000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <f>+D5*0.85</f>
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <f>2.5*100*12</f>
-        <v>3000</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <f>+D7*0.85</f>
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="10">
-        <f>SUM(D5:D10)</f>
-        <v>703000</v>
-      </c>
-      <c r="E11" s="15">
-        <f>SUM(E6:E10)</f>
-        <v>642550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
-        <f>2.5*2*2*22*12*5</f>
-        <v>13200</v>
-      </c>
-      <c r="E13" s="3">
-        <f>2.5*2*2*22*12*5</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <f>2*2.5*1*8*22*12*5</f>
-        <v>52800</v>
-      </c>
-      <c r="E14" s="3">
-        <f>2*2.5*1*8*22*12*5</f>
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3">
-        <f>2.5*1*4*22*2*5</f>
-        <v>2200</v>
-      </c>
-      <c r="E15" s="3">
-        <f>2.5*1*4*22*2*5</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3">
-        <f>+D9*5</f>
-        <v>500000</v>
-      </c>
-      <c r="E16" s="3">
-        <f>+E9*5</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f>25000*5</f>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="10">
-        <f>SUM(D13:D17)</f>
-        <v>568200</v>
-      </c>
-      <c r="E18" s="10">
-        <f>SUM(E13:E17)</f>
-        <v>693200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3">
-        <f>2000000*0.45</f>
-        <v>900000</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3">
-        <f>2000000*0.55</f>
-        <v>1100000</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="10">
-        <f>SUM(D20:D22)</f>
-        <v>2000000</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="3">
-        <f>2000000*0.25</f>
-        <v>500000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="3">
-        <f>2000000*0.75</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="10">
-        <f>SUM(E25:E27)</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3">
-        <f>+D21*0.1</f>
-        <v>90000</v>
-      </c>
-      <c r="E30" s="11">
-        <f>+E26*0.1</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31" s="10">
-        <f>+D30</f>
-        <v>90000</v>
-      </c>
-      <c r="E31" s="10">
-        <f>+E30</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3">
-        <f>+D11</f>
-        <v>703000</v>
-      </c>
-      <c r="E34" s="3">
-        <f>+E11</f>
-        <v>642550</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="3">
-        <f>+D18</f>
-        <v>568200</v>
-      </c>
-      <c r="E35" s="3">
-        <f>+E18</f>
-        <v>693200</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="3">
-        <f>+D23</f>
-        <v>2000000</v>
-      </c>
-      <c r="E36" s="3">
-        <f>+E28</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
-        <f>+D30</f>
-        <v>90000</v>
-      </c>
-      <c r="E37" s="3">
-        <f>+E30</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="10">
-        <f>SUM(D34:D37)</f>
-        <v>3361200</v>
-      </c>
-      <c r="E38" s="10">
-        <f>SUM(E34:E37)</f>
-        <v>3385750</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="E44" s="3">
-        <f>+D44</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3">
-        <f>+D44*0.25*0.55</f>
-        <v>550000</v>
-      </c>
-      <c r="E45" s="3">
-        <f>+E44*0.25*0.75</f>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="10">
-        <f>SUM(D44:D45)</f>
-        <v>4550000</v>
-      </c>
-      <c r="E46" s="10">
-        <f>SUM(E44:E45)</f>
-        <v>4750000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="16">
-        <f>+(D46-D38)/D38</f>
-        <v>0.35368320837796</v>
-      </c>
-      <c r="E49" s="16">
-        <f>+(E46-E38)/E38</f>
-        <v>0.402938787565532</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="3">
-        <f>+E46-D46</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="3">
-        <f>+E10+E17</f>
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="17">
-        <f>+(D52-D53)/D53</f>
-        <v>0.290322580645161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="40.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.8095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8095238095238" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.3428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="4:5">
-      <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
         <v>600000</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" ht="30" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
         <f>+D5*0.85</f>
         <v>510000</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
         <f>2.5*100*12</f>
         <v>3000</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" ht="30" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
         <f>+D7*0.85</f>
         <v>2550</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
         <v>100000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>30000</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <f>SUM(D5:D10)</f>
         <v>703000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f>SUM(E6:E10)</f>
         <v>642550</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
         <f>2.5*2*2*22*12*5</f>
         <v>13200</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f>2.5*2*2*22*12*5</f>
         <v>13200</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
         <f>2*2.5*1*8*22*12*5</f>
         <v>52800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>2*2.5*1*8*22*12*5</f>
         <v>52800</v>
       </c>
     </row>
     <row r="15" ht="30" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2">
         <f>2.5*1*4*22*2*5</f>
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>2.5*1*4*22*2*5</f>
         <v>2200</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
         <f>+D9*5</f>
         <v>500000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>+E9*5</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3">
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f>25000*5</f>
         <v>125000</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6">
         <f>SUM(D13:D17)</f>
         <v>568200</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>SUM(E13:E17)</f>
         <v>693200</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" ht="30" spans="1:5">
       <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2">
         <f>2000000*0.45</f>
         <v>900000</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" ht="30" spans="2:5">
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
         <f>2000000*0.55</f>
         <v>1100000</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6">
         <f>SUM(D20:D22)</f>
         <v>2000000</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="G24">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" ht="30" spans="1:5">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2">
         <f>2000000*0.25</f>
         <v>500000</v>
       </c>
     </row>
     <row r="27" ht="30" spans="2:5">
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2">
         <f>2000000*0.75</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6">
         <f>SUM(E25:E27)</f>
         <v>2000000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" ht="30" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" ht="30" spans="1:5">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2">
         <f>+D21*0.1</f>
         <v>90000</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>+E26*0.1</f>
         <v>50000</v>
       </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6">
         <f>+D30</f>
         <v>90000</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f>+E30</f>
         <v>50000</v>
       </c>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="3"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2">
         <f>+D11</f>
         <v>703000</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f>+E11</f>
         <v>642550</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="2">
         <f>+D18</f>
         <v>568200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f>+E18</f>
         <v>693200</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2">
         <f>+D23</f>
         <v>2000000</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f>+E28</f>
         <v>2000000</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2">
         <f>+D30</f>
         <v>90000</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f>+E30</f>
         <v>50000</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6">
         <f>SUM(D34:D37)</f>
         <v>3361200</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f>SUM(E34:E37)</f>
         <v>3385750</v>
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>54</v>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1</v>
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" ht="30" spans="2:5">
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="2">
         <v>4000000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <f>+D44</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="45" ht="45" spans="2:7">
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3">
+    <row r="45" ht="45" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2">
         <f>+D44*0.25*0.55</f>
         <v>550000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <f>+E44*0.25*0.75</f>
         <v>750000</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <f>SUM(D44:D45)</f>
         <v>4550000</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <f>SUM(E44:E45)</f>
         <v>4750000</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="12">
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="11">
         <f>+(D46-D38)/D38</f>
         <v>0.35368320837796</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <f>+(E46-E38)/E38</f>
         <v>0.402938787565532</v>
       </c>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2">
         <f>+E46-D46</f>
         <v>200000</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
         <f>+E10+E17</f>
         <v>155000</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="C54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="13">
         <f>+(E52-E53)/E53</f>
         <v>0.290322580645161</v>
       </c>
@@ -2838,102 +2200,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="20.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>